--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/INDIANA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/INDIANA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1342"/>
+  <dimension ref="A1:D1336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C30">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C36">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C40">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C58">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C63">
@@ -1543,7 +1543,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C89">
@@ -1834,7 +1834,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C111">
@@ -1982,7 +1982,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C122">
@@ -2008,7 +2008,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2065,7 +2065,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C128">
@@ -2252,7 +2252,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C142">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C154">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C163">
@@ -2538,7 +2538,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C164">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C165">
@@ -2642,12 +2642,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C172">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C175">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C176">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C180">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C186">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C195">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C198">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C208">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C216">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C217">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C226">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C233">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C239">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C240">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C241">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C252">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C253">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C254">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C261">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C265">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C273">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C277">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C279">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C281">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C282">
@@ -4108,7 +4108,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C284">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C288">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C294">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C298">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C301">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C306">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C312">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C317">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C323">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C325">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C327">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C341">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C343">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C345">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C347">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C350">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C360">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C364">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C369">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C374">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C377">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C380">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C387">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C388">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C390">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C391">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C394">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C403">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C404">
@@ -5769,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C411">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C412">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C414">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C420">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C422">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C424">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C433">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C437">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C442">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C446">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C451">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C452">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C458">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C463">
@@ -6476,7 +6476,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C465">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C467">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C468">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C471">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C473">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C476">
@@ -6723,7 +6723,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C484">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C485">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C486">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C487">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C491">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C492">
@@ -6866,7 +6866,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C495">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C496">
@@ -7170,7 +7170,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C518">
@@ -7989,7 +7989,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C581">
@@ -8293,7 +8293,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C604">
@@ -8384,7 +8384,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C611">
@@ -8436,7 +8436,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C615">
@@ -8501,7 +8501,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C620">
@@ -8514,7 +8514,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C621">
@@ -8592,7 +8592,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C627">
@@ -8636,7 +8636,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C630">
@@ -8727,7 +8727,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C637">
@@ -8979,7 +8979,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C656">
@@ -9044,7 +9044,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C661">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C664">
@@ -9153,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C669">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C670">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C674">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C676">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C677">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C678">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C679">
@@ -9296,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C680">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C685">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C687">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C688">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C689">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C691">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C692">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C696">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C698">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C704">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C725">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C753">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C755">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C772">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C773">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C774">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C784">
@@ -11168,7 +11168,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C824">
@@ -11311,7 +11311,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C835">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C836">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C837">
@@ -11350,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C838">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C839">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C841">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C842">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C843">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C844">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C845">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C846">
@@ -11654,7 +11654,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C861">
@@ -11758,7 +11758,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C869">
@@ -11875,7 +11875,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C878">
@@ -11927,7 +11927,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C882">
@@ -12109,7 +12109,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C896">
@@ -12122,7 +12122,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C897">
@@ -12187,7 +12187,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C902">
@@ -12304,7 +12304,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C911">
@@ -12382,7 +12382,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C917">
@@ -12629,7 +12629,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C936">
@@ -12642,7 +12642,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C937">
@@ -12720,7 +12720,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C943">
@@ -12811,7 +12811,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C950">
@@ -12876,7 +12876,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C955">
@@ -12889,7 +12889,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C956">
@@ -12902,7 +12902,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C957">
@@ -12967,7 +12967,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C962">
@@ -13162,7 +13162,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C977">
@@ -13349,7 +13349,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C991">
@@ -13375,7 +13375,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C993">
@@ -13414,7 +13414,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C996">
@@ -13427,7 +13427,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C997">
@@ -13453,7 +13453,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C999">
@@ -13492,7 +13492,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1002">
@@ -13658,7 +13658,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1014">
@@ -13762,7 +13762,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1022">
@@ -13827,7 +13827,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1027">
@@ -13879,7 +13879,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1031">
@@ -13983,7 +13983,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1039">
@@ -13996,7 +13996,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1040">
@@ -14009,7 +14009,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1041">
@@ -14022,7 +14022,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1042">
@@ -14035,7 +14035,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1043">
@@ -14544,7 +14544,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1081">
@@ -14913,7 +14913,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1109">
@@ -15126,7 +15126,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1125">
@@ -15178,7 +15178,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1129">
@@ -15191,7 +15191,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1130">
@@ -15230,7 +15230,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1133">
@@ -15269,7 +15269,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1136">
@@ -15482,7 +15482,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1152">
@@ -15534,7 +15534,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1156">
@@ -15651,7 +15651,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1165">
@@ -15690,7 +15690,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1168">
@@ -15781,7 +15781,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1175">
@@ -15898,7 +15898,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1184">
@@ -15911,7 +15911,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1185">
@@ -16106,7 +16106,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1200">
@@ -16119,7 +16119,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1201">
@@ -16145,7 +16145,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1203">
@@ -16158,7 +16158,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1204">
@@ -16171,7 +16171,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1205">
@@ -16288,7 +16288,7 @@
     <row r="1214">
       <c r="B1214" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1214">
@@ -16340,7 +16340,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1218">
@@ -16379,7 +16379,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1221">
@@ -16405,7 +16405,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1223">
@@ -16561,7 +16561,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1235">
@@ -16613,7 +16613,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1239">
@@ -16626,7 +16626,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1240">
@@ -16678,7 +16678,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1244">
@@ -16756,7 +16756,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1250">
@@ -16769,7 +16769,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1251">
@@ -17133,7 +17133,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1279">
@@ -17390,7 +17390,7 @@
     <row r="1298">
       <c r="B1298" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1298">
@@ -17507,7 +17507,7 @@
     <row r="1307">
       <c r="B1307" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1307">
@@ -17598,7 +17598,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1314">
@@ -17611,7 +17611,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1315">
@@ -17624,7 +17624,7 @@
     <row r="1316">
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1316">
@@ -17754,7 +17754,7 @@
     <row r="1326">
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1326">
@@ -17767,7 +17767,7 @@
     <row r="1327">
       <c r="B1327" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1327">
@@ -17806,7 +17806,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1330">
@@ -17892,41 +17892,6 @@
       </c>
       <c r="D1336">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
